--- a/eda/treebank/train/column-1-analyze.xlsx
+++ b/eda/treebank/train/column-1-analyze.xlsx
@@ -52,13 +52,13 @@
     <t>FW</t>
   </si>
   <si>
-    <t>karaoke, fax, nilông, marketing, bù loong, virus, tivi, knock-out, boy, website</t>
+    <t>karaoke, fax, nilông, marketing, bù loong, virus, tivi, website, radio, boy</t>
   </si>
   <si>
     <t>I</t>
   </si>
   <si>
-    <t>ơi, Ôi, nhỉ, nhé, Thôi, ạ, À, thay, ư, à</t>
+    <t>ơi, Ôi, Thôi, nhỉ, nhé, ạ, À, ư, à, thay</t>
   </si>
   <si>
     <t>L</t>
@@ -106,7 +106,7 @@
     <t>P</t>
   </si>
   <si>
-    <t>tôi, này, đó, mình, chúng tôi, đây, họ, Tôi, nào, cả</t>
+    <t>tôi, này, đó, mình, chúng tôi, đây, họ, Tôi, nào, gì</t>
   </si>
   <si>
     <t>R</t>
@@ -130,19 +130,19 @@
     <t>Vy</t>
   </si>
   <si>
-    <t>PCCC, QLTT</t>
+    <t>QLTT, PCCC</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>như vậy, như thế, làm sao, thế nào, nhất là, vì sao, một mình, Có lẽ, ngày càng, tại sao</t>
+    <t>như vậy, làm sao, như thế, nhất là, thế nào, vì sao, một mình, Có lẽ, có vẻ, ngày càng</t>
   </si>
   <si>
     <t>Z</t>
   </si>
   <si>
-    <t>phó, trưởng, nguyên, liên, tái, Phó, cựu, tổng, cố, bất</t>
+    <t>phó, trưởng, nguyên, liên, tổng, tái, cựu, Phó, bất, cố</t>
   </si>
 </sst>
 </file>
